--- a/Data/meter_id/jenis_gedung.xlsx
+++ b/Data/meter_id/jenis_gedung.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFolder\Git\TA_SpatioTemporal\Data\meter_id\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2301F49F-5259-416D-9117-2AB58DF46EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A21580-0C8F-4804-A414-0A3B2AF6898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,9 +74,6 @@
     <t>KIMIA</t>
   </si>
   <si>
-    <t xml:space="preserve">SBM </t>
-  </si>
-  <si>
     <t>LABTEK III</t>
   </si>
   <si>
@@ -144,9 +152,6 @@
     <t>Pompa Air - Sabuga</t>
   </si>
   <si>
-    <t>Nama Gedung</t>
-  </si>
-  <si>
     <t>is_kelas</t>
   </si>
   <si>
@@ -154,6 +159,12 @@
   </si>
   <si>
     <t>is_kantor</t>
+  </si>
+  <si>
+    <t>meter_id</t>
+  </si>
+  <si>
+    <t>SBM</t>
   </si>
 </sst>
 </file>
@@ -315,13 +326,13 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -330,10 +341,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,35 +358,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -521,6 +503,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -528,18 +519,38 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -556,16 +567,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9597E990-D5AB-4FEB-AB5E-D66DC0A9D8F1}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9597E990-D5AB-4FEB-AB5E-D66DC0A9D8F1}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D40" xr:uid="{9597E990-D5AB-4FEB-AB5E-D66DC0A9D8F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7BC96E59-6752-4031-AAE8-6483C701E76E}" name="Nama Gedung" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{36FDA209-E02D-4F43-819F-3DFBCD0A0618}" name="is_kelas" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DB1FC12A-6FDB-4835-8B2B-02478664CAC7}" name="is_kantor" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{545AE05E-D53B-459F-A77A-5D1536FF85FD}" name="is_penelitian" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7BC96E59-6752-4031-AAE8-6483C701E76E}" name="meter_id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{36FDA209-E02D-4F43-819F-3DFBCD0A0618}" name="is_kelas" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DB1FC12A-6FDB-4835-8B2B-02478664CAC7}" name="is_kantor" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{545AE05E-D53B-459F-A77A-5D1536FF85FD}" name="is_penelitian" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -836,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,16 +861,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -878,7 +889,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -892,7 +903,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -920,7 +931,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -948,7 +959,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -962,7 +973,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -990,7 +1001,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1004,7 +1015,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1018,21 +1029,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1046,7 +1057,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1060,7 +1071,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1074,7 +1085,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1102,7 +1113,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1116,7 +1127,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1130,7 +1141,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1144,7 +1155,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1172,7 +1183,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1186,7 +1197,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -1200,7 +1211,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1228,7 +1239,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -1284,7 +1295,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1326,7 +1337,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -1340,7 +1351,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -1354,7 +1365,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -1368,7 +1379,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1382,7 +1393,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -1396,7 +1407,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
